--- a/exports/users.xlsx
+++ b/exports/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -52,13 +52,25 @@
     <t>Zack Morgan</t>
   </si>
   <si>
+    <t>Zack</t>
+  </si>
+  <si>
     <t>25407071</t>
   </si>
   <si>
-    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/120202781_10105999248794375_6533983175630710641_n.jpg?_nc_cat=110&amp;ccb=1-5&amp;_nc_sid=85a577&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=p7qcxBmP6WgAX-1CTF6&amp;_nc_oc=AQk3_FUF7L4x9eoXm0pesHqpotxpuXLdD7FU2EbMH7MW8S6_sF3xQXHW3RvEp_DQgSA&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=a9950caa81268bc441eda34bb42ffb17&amp;oe=61A24D12&amp;manual_redirect=1</t>
+    <t>100018540527184</t>
+  </si>
+  <si>
+    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/120202781_10105999248794375_6533983175630710641_n.jpg?_nc_cat=110&amp;ccb=1-5&amp;_nc_sid=85a577&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=T-5gdd17vhsAX8kEkdc&amp;_nc_oc=AQkIVf0og7jv0P4ANhQs9De61yqvkRxC83D2lk0uvWg-Gn2Ii7XL5PYG2AMAkFxeZ0g&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=0af8a742429171262e333f77d99123b2&amp;oe=61A64192&amp;manual_redirect=1</t>
+  </si>
+  <si>
+    <t>~~~~</t>
   </si>
   <si>
     <t>{'Facebook': '/zack', 'Instagram': 'thisguyfunks', 'YouTube': 'zackmorganmusic'}</t>
+  </si>
+  <si>
+    <t>{'Facebook': '/zackxxx', 'WeChat': 'Xxx'}</t>
   </si>
   <si>
     <t>Everlyne Morgan
@@ -69,6 +81,10 @@
 Current City
 Coppell, Texas
 Hometown</t>
+  </si>
+  <si>
+    <t>Bahau
+Current City</t>
   </si>
   <si>
     <t>Zack Morgan Music
@@ -93,7 +109,10 @@
 Gender</t>
   </si>
   <si>
-    <t>~~~~</t>
+    <t>Male
+Gender
+Malayu
+Languages</t>
   </si>
 </sst>
 </file>
@@ -513,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -545,40 +564,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exports/users.xlsx
+++ b/exports/users.xlsx
@@ -14,67 +14,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Cover_Photo_Text</t>
+  </si>
+  <si>
+    <t>Cover_Photo</t>
+  </si>
+  <si>
+    <t>Profile_Picture</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Pictures</t>
-  </si>
-  <si>
-    <t>Contacts</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Place lived</t>
-  </si>
-  <si>
     <t>Work</t>
   </si>
   <si>
+    <t>Places Lived</t>
+  </si>
+  <si>
+    <t>Contact Info</t>
+  </si>
+  <si>
+    <t>Basic Info</t>
+  </si>
+  <si>
+    <t>Family Members</t>
+  </si>
+  <si>
     <t>Life Events</t>
   </si>
   <si>
-    <t>Basic Info</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Relationship</t>
+    <t>Cover Photo: '"I feel like one of us should be pointing at something like we're saying 'hey look at that thing up there, ya know?'" - me during this @[190871064270721:274:Mamafesta] photoshoot
+📷 @[1479720112:2048:George Trent Grogan] // @[111654252371464:274:Mountain Trout Photography]'</t>
+  </si>
+  <si>
+    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/66829450_10104965064667655_8946052221959667712_n.jpg?_nc_cat=104&amp;ccb=1-5&amp;_nc_sid=dd9801&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=3GCvizmlcCcAX8dg_v9&amp;tn=o0Ha6Ok03tiYY29r&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=209a35683f161e16618c49db9b49c969&amp;oe=61A70388&amp;manual_redirect=1</t>
+  </si>
+  <si>
+    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/120202781_10105999248794375_6533983175630710641_n.jpg?_nc_cat=110&amp;ccb=1-5&amp;_nc_sid=85a577&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=T-5gdd17vhsAX8kEkdc&amp;_nc_oc=AQkIVf0og7jv0P4ANhQs9De61yqvkRxC83D2lk0uvWg-Gn2Ii7XL5PYG2AMAkFxeZ0g&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=0af8a742429171262e333f77d99123b2&amp;oe=61A64192&amp;manual_redirect=1</t>
+  </si>
+  <si>
+    <t>25407071</t>
   </si>
   <si>
     <t>Zack Morgan</t>
   </si>
   <si>
-    <t>Zack</t>
-  </si>
-  <si>
-    <t>25407071</t>
-  </si>
-  <si>
-    <t>100018540527184</t>
-  </si>
-  <si>
-    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/120202781_10105999248794375_6533983175630710641_n.jpg?_nc_cat=110&amp;ccb=1-5&amp;_nc_sid=85a577&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=T-5gdd17vhsAX8kEkdc&amp;_nc_oc=AQkIVf0og7jv0P4ANhQs9De61yqvkRxC83D2lk0uvWg-Gn2Ii7XL5PYG2AMAkFxeZ0g&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=0af8a742429171262e333f77d99123b2&amp;oe=61A64192&amp;manual_redirect=1</t>
-  </si>
-  <si>
-    <t>~~~~</t>
-  </si>
-  <si>
-    <t>{'Facebook': '/zack', 'Instagram': 'thisguyfunks', 'YouTube': 'zackmorganmusic'}</t>
-  </si>
-  <si>
-    <t>{'Facebook': '/zackxxx', 'WeChat': 'Xxx'}</t>
-  </si>
-  <si>
-    <t>Everlyne Morgan
-Grandmother</t>
+    <t>Zack Morgan Music
+Keyboardist
+Mamafesta
+Keyboardist
+A Live One
+Keyboardist
+Frontin'
+Keyboardist
+Cream Cheese Accident
+Keyboardist
+A-Town GetDown
+Keyboardist
+Matchmaker Band
+Keyboardist
+PDA Band
+Keyboardist</t>
   </si>
   <si>
     <t>Austin, Texas
@@ -83,36 +89,15 @@
 Hometown</t>
   </si>
   <si>
-    <t>Bahau
-Current City</t>
-  </si>
-  <si>
-    <t>Zack Morgan Music
-Keyboardist
-Mamafesta
-Keyboardist
-A Live One
-Keyboardist
-Frontin'
-Keyboardist
-Cream Cheese Accident
-Keyboardist
-A-Town GetDown
-Keyboardist
-Matchmaker Band
-Keyboardist
-PDA Band
-Keyboardist</t>
+    <t>{'Facebook': '/zack', 'Instagram': 'thisguyfunks', 'YouTube': 'zackmorganmusic'}</t>
   </si>
   <si>
     <t>Male
 Gender</t>
   </si>
   <si>
-    <t>Male
-Gender
-Malayu
-Languages</t>
+    <t>Everlyne Morgan
+Grandmother</t>
   </si>
 </sst>
 </file>
@@ -483,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,72 +516,38 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exports/users.xlsx
+++ b/exports/users.xlsx
@@ -56,7 +56,7 @@
     <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/66829450_10104965064667655_8946052221959667712_n.jpg?_nc_cat=104&amp;ccb=1-5&amp;_nc_sid=dd9801&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=3GCvizmlcCcAX8dg_v9&amp;tn=o0Ha6Ok03tiYY29r&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=209a35683f161e16618c49db9b49c969&amp;oe=61A70388&amp;manual_redirect=1</t>
   </si>
   <si>
-    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/120202781_10105999248794375_6533983175630710641_n.jpg?_nc_cat=110&amp;ccb=1-5&amp;_nc_sid=85a577&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=T-5gdd17vhsAX8kEkdc&amp;_nc_oc=AQkIVf0og7jv0P4ANhQs9De61yqvkRxC83D2lk0uvWg-Gn2Ii7XL5PYG2AMAkFxeZ0g&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=0af8a742429171262e333f77d99123b2&amp;oe=61A64192&amp;manual_redirect=1</t>
+    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/120202781_10105999248794375_6533983175630710641_n.jpg?_nc_cat=110&amp;ccb=1-5&amp;_nc_sid=85a577&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=loRERme_lzQAX_dWFZB&amp;_nc_oc=AQntbmLqcOR8oGcZkvgkVPlsuEI9Z_-hc1JWwux47tsFBkl_kabBCZYoscz7q5XUfMo&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=9e0e468d6aaa7754ad32e9af4777a2f7&amp;oe=61A64192&amp;manual_redirect=1</t>
   </si>
   <si>
     <t>25407071</t>

--- a/exports/users.xlsx
+++ b/exports/users.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Cover_Photo_Text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Cover_Photo</t>
   </si>
@@ -37,26 +34,10 @@
     <t>Places Lived</t>
   </si>
   <si>
-    <t>Contact Info</t>
-  </si>
-  <si>
-    <t>Basic Info</t>
-  </si>
-  <si>
-    <t>Family Members</t>
-  </si>
-  <si>
-    <t>Life Events</t>
-  </si>
-  <si>
-    <t>Cover Photo: '"I feel like one of us should be pointing at something like we're saying 'hey look at that thing up there, ya know?'" - me during this @[190871064270721:274:Mamafesta] photoshoot
-📷 @[1479720112:2048:George Trent Grogan] // @[111654252371464:274:Mountain Trout Photography]'</t>
-  </si>
-  <si>
-    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/66829450_10104965064667655_8946052221959667712_n.jpg?_nc_cat=104&amp;ccb=1-5&amp;_nc_sid=dd9801&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=3GCvizmlcCcAX8dg_v9&amp;tn=o0Ha6Ok03tiYY29r&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=209a35683f161e16618c49db9b49c969&amp;oe=61A70388&amp;manual_redirect=1</t>
-  </si>
-  <si>
-    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/120202781_10105999248794375_6533983175630710641_n.jpg?_nc_cat=110&amp;ccb=1-5&amp;_nc_sid=85a577&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=loRERme_lzQAX_dWFZB&amp;_nc_oc=AQntbmLqcOR8oGcZkvgkVPlsuEI9Z_-hc1JWwux47tsFBkl_kabBCZYoscz7q5XUfMo&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=9e0e468d6aaa7754ad32e9af4777a2f7&amp;oe=61A64192&amp;manual_redirect=1</t>
+    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/66829450_10104965064667655_8946052221959667712_n.jpg?_nc_cat=104&amp;ccb=1-5&amp;_nc_sid=ed5ff1&amp;_nc_ohc=fW2umw5_A-8AX8M4TNv&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=e937750054d0d77e15730301e1be16c1&amp;oe=61A70388</t>
+  </si>
+  <si>
+    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-1/cp0/e15/q65/p120x120/120202781_10105999248794375_6533983175630710641_n.jpg?_nc_cat=110&amp;ccb=1-5&amp;_nc_sid=dbb9e7&amp;_nc_ohc=G2n7X9vF-rMAX8wJ5Du&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=d518c7587135730ebb9efb5ab6ead90f&amp;oe=61A7063E</t>
   </si>
   <si>
     <t>25407071</t>
@@ -87,17 +68,6 @@
 Current City
 Coppell, Texas
 Hometown</t>
-  </si>
-  <si>
-    <t>{'Facebook': '/zack', 'Instagram': 'thisguyfunks', 'YouTube': 'zackmorganmusic'}</t>
-  </si>
-  <si>
-    <t>Male
-Gender</t>
-  </si>
-  <si>
-    <t>Everlyne Morgan
-Grandmother</t>
   </si>
 </sst>
 </file>
@@ -468,13 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,61 +463,34 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exports/users.xlsx
+++ b/exports/users.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Friend_Count</t>
+  </si>
+  <si>
+    <t>Follower_Count</t>
+  </si>
+  <si>
+    <t>Following_Count</t>
+  </si>
   <si>
     <t>Cover_Photo</t>
   </si>
@@ -34,10 +43,10 @@
     <t>Places Lived</t>
   </si>
   <si>
-    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/66829450_10104965064667655_8946052221959667712_n.jpg?_nc_cat=104&amp;ccb=1-5&amp;_nc_sid=ed5ff1&amp;_nc_ohc=fW2umw5_A-8AX8M4TNv&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=e937750054d0d77e15730301e1be16c1&amp;oe=61A70388</t>
-  </si>
-  <si>
-    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-1/cp0/e15/q65/p120x120/120202781_10105999248794375_6533983175630710641_n.jpg?_nc_cat=110&amp;ccb=1-5&amp;_nc_sid=dbb9e7&amp;_nc_ohc=G2n7X9vF-rMAX8wJ5Du&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=d518c7587135730ebb9efb5ab6ead90f&amp;oe=61A7063E</t>
+    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/66829450_10104965064667655_8946052221959667712_n.jpg?_nc_cat=104&amp;ccb=1-5&amp;_nc_sid=ed5ff1&amp;_nc_ohc=b8Q2KIZslMsAX-mMZnz&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=00_AT9LqKj4YMTZxhMd8q1ZoAmzLSli7Yv89rIXpQe-baNTkA&amp;oe=61EE3488</t>
+  </si>
+  <si>
+    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-1/cp0/e15/q65/p120x120/120202781_10105999248794375_6533983175630710641_n.jpg?_nc_cat=110&amp;ccb=1-5&amp;_nc_sid=dbb9e7&amp;_nc_ohc=XECH6PJh_pQAX-TMmfE&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=00_AT-iwNev9hFGizurr6ScwN-80WO1laMpBZDzm5rrhnunQg&amp;oe=61EE373E</t>
   </si>
   <si>
     <t>25407071</t>
@@ -46,7 +55,10 @@
     <t>Zack Morgan</t>
   </si>
   <si>
-    <t>Zack Morgan Music
+    <t>Half Step
+Talent Buyer
+Austin, Texas
+Zack Morgan Music
 Keyboardist
 Mamafesta
 Keyboardist
@@ -438,13 +450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,34 +475,43 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
